--- a/target/test-classes/testdata/Frameworkdemo.xlsx
+++ b/target/test-classes/testdata/Frameworkdemo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA and ECLIPSE\ECLIPSE\TestNGDemo\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2E9592-63D7-4A9F-A542-9BFAB9E9ABB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFDB400-8F48-4051-A925-707215E85901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F9437FBC-3C48-427C-842C-F26215D9A115}"/>
+    <workbookView xWindow="0" yWindow="348" windowWidth="11424" windowHeight="11892" activeTab="1" xr2:uid="{F9437FBC-3C48-427C-842C-F26215D9A115}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Username</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>T-shirt</t>
+  </si>
+  <si>
+    <t>neha.kulkarni.0311@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -521,7 +524,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -569,7 +572,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>

--- a/target/test-classes/testdata/Frameworkdemo.xlsx
+++ b/target/test-classes/testdata/Frameworkdemo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA and ECLIPSE\ECLIPSE\TestNGDemo\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFDB400-8F48-4051-A925-707215E85901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59128261-3C78-425D-A986-9ACAA241EB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="348" windowWidth="11424" windowHeight="11892" activeTab="1" xr2:uid="{F9437FBC-3C48-427C-842C-F26215D9A115}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F9437FBC-3C48-427C-842C-F26215D9A115}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Username</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Mobile Number</t>
   </si>
   <si>
-    <t>demo@gmail.com</t>
-  </si>
-  <si>
     <t>Demo</t>
   </si>
   <si>
@@ -96,7 +93,22 @@
     <t>T-shirt</t>
   </si>
   <si>
-    <t>neha.kulkarni.0311@gmail.com</t>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Wisdom Valley</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>demo1@gmail.com</t>
+  </si>
+  <si>
+    <t>nehak@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -483,7 +495,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -503,10 +515,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -521,10 +533,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FEDF74-32E2-4C8C-9F60-876730BD239C}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -532,16 +544,16 @@
     <col min="1" max="1" width="38.77734375" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="5" width="21.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -555,48 +567,60 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1">
-        <v>111111</v>
-      </c>
       <c r="I2" s="1">
+        <v>11111</v>
+      </c>
+      <c r="J2" s="1">
         <v>9874563210</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -624,12 +648,12 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
